--- a/metrics/R2/average time/Edema macular diabético.xlsx
+++ b/metrics/R2/average time/Edema macular diabético.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9254769627199874</v>
+        <v>0.9249692331698305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9254769627199874</v>
+        <v>0.9249692331698305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9254769627199874</v>
+        <v>0.9249692331698305</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980451000868555</v>
+        <v>0.9979765443941183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9980434172991038</v>
+        <v>0.9980980856657423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9979834470579608</v>
+        <v>0.9980357448082563</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9985121626414682</v>
+        <v>0.9984927234106594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9985120581352344</v>
+        <v>0.9984935180785186</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9985122635058566</v>
+        <v>0.9984932665480289</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.990471956483862</v>
+        <v>0.9906689908629228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9907122554959255</v>
+        <v>0.9907111992285387</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9907612208411306</v>
+        <v>0.9905299442665263</v>
       </c>
     </row>
   </sheetData>
